--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>test_auc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>test_ap</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>test_f1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>best_auc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>best_auc_trial</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>best_ap</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>best_ap_trial</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>best_f1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>best_f1_trial</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
@@ -456,11 +516,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1747643090.106681</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.986000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +569,51 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1747643090.160757</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.009</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +622,51 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1747643090.205473</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.817</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +675,51 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1747643090.248064</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.736</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +728,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1747643090.293761</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.314</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +781,51 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1747643090.326924</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>86</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.045</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +834,51 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1747643090.359004</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>30</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.152</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +887,51 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1747643090.393058</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.214</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +940,51 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1747643090.425216</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>30</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.184</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +993,316 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>failed: mat1 and mat2 shapes cannot be multiplied (10984x128 and 16x2)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1747643090.458023</v>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>89</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.019</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>74</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.004</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>30</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>32</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CITESEER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>30</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.081</v>
       </c>
     </row>
   </sheetData>
